--- a/N_out_refinement/output_forest_model_[am_N2_filter_top60_n1(4)]_2024-03-29/am_N2_filter_top60_n1(4)_hyperparameter_2024-03-29.xlsx
+++ b/N_out_refinement/output_forest_model_[am_N2_filter_top60_n1(4)]_2024-03-29/am_N2_filter_top60_n1(4)_hyperparameter_2024-03-29.xlsx
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2273912541825314</v>
+        <v>0.2264568974849349</v>
       </c>
       <c r="M2">
-        <v>0.01626977882540338</v>
+        <v>0.01718735720005956</v>
       </c>
     </row>
   </sheetData>
